--- a/analyzed_results.xlsx
+++ b/analyzed_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,47 +482,47 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>[2023-01-01]
-内膜組織診の結果、体部類内膜癌、Stage IAと診断。 糖尿病（HbA1c 8.8%）あり
-[2023-01-12]
-治療方針：腹腔鏡下子宮全摘の方針。
-[2023-01-29]
-手術記録：腹腔鏡下子宮全摘施行。手術時間325分、出血量514ml。
-[2023-02-08]
-術後化学療法としてDCを開始。
-[2023-02-25]
-術後化学療法としてPTX+CBDCAを開始。
-[2023-03-10]
-術後化学療法としてDC療法を開始。</t>
+組織診の結果、高異型度漿液性癌、Stage IICと診断。
+[2023-01-26]
+治療方針：開腹子宮全摘+両側付属器切除術の方針。 腎機能低下（Cr 2.5 mg/dl）
+[2023-02-14]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間302分、出血量570ml。
+[2023-03-08]
+術後化学療法としてTC療法を開始。 腎機能低下（Cr 1.8 mg/dl）
+[2023-03-17]
+術後化学療法としてDC療法を開始。
+[2023-03-28]
+術後化学療法としてTCを開始。</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>子宮体部類内膜癌</t>
+          <t>高異型度漿液性癌</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-01-01のカルテに記載された最新の診断名</t>
+          <t>2023-01-01の組織診の結果に記載された最新の診断名</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Stage IA</t>
+          <t>Stage IIC</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-01-01の内膜組織診の結果に記載された確定ステージ</t>
+          <t>2023-01-01の組織診の結果に記載された最新のステージ情報</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>内膜組織診: 体部類内膜癌、Stage IA</t>
+          <t>高異型度漿液性癌、Stage IIC</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-01の記載より、内膜組織診の結果が体部類内膜癌、Stage IAと診断されているため</t>
+          <t>2023-01-01の記載に組織診の結果として記載されているため</t>
         </is>
       </c>
     </row>
@@ -533,49 +533,425 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>[2023-01-01]
-内膜組織診の結果、子宮体部癌、Stage ICと診断。
-[2023-01-23]
+組織診の結果、子宮体部類内膜癌、Stage IIAと診断。 腎機能低下（Cr 2.0 mg/dl）
+[2023-01-14]
+治療方針：開腹子宮摘出術の方針。 抗凝固薬（プラザキサ）服用中
+[2023-02-02]
+手術記録：開腹子宮摘出術施行。手術時間343分、出血量863ml。
+[2023-02-27]
+術後化学療法としてweekly パクリタキセルを開始。 心機能低下（EF 54%）あり
+[2023-03-20]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>子宮体部類内膜癌</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-01-01の組織診の結果に記載された最新の診断名</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Stage IIA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2023-01-01の組織診結果に記載された最新のステージ情報</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>組織診の結果、子宮体部類内膜癌、Stage IIA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2023-01-01の記載に組織診の結果が記載されており、がん診断に関連する検査情報として抽出。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、子宮頚癌、Stage IVAと診断。
+[2023-01-24]
 治療方針：開腹子宮摘出術の方針。
-[2023-01-30]
-手術記録：開腹子宮全摘施行。手術時間217分、出血量143ml。
-[2023-02-15]
+[2023-02-05]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間287分、出血量456ml。
+[2023-02-22]
+術後化学療法としてwPTXを開始。
+[2023-03-16]
+術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>子宮頚癌</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-01-01の組織診断に記載された最新の診断名</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Stage IVA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2023-01-01の組織診断に記載された最新のステージ情報</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>組織診断の結果、子宮頚癌、Stage IVAと診断</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023-01-01の記載に組織診断の結果が記載されており、最新の診断検査情報として抽出</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、明細胞癌、Stage IIICと診断。
+[2023-01-14]
+治療方針：開腹子宮摘出術の方針。
+[2023-02-13]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間270分、出血量527ml。</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>明細胞癌</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-01-01の組織診断に記載された最新の診断名</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Stage IIIC</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2023-01-01の組織診断に記載された最新のステージ情報</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>組織診断の結果、明細胞癌、Stage IIIC</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2023-01-01の記載に組織診断の結果が記載されており、がん診断に関連する検査情報として抽出</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、子宮頸癌、Stage IVCと診断。 高度肥満（BMI 35.7）
+[2023-01-08]
+治療方針：開腹子宮全摘出術の方針。 抗凝固薬（イグザレルト）服用中
+[2023-02-02]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間254分、出血量83ml。
+[2023-03-01]
 術後化学療法としてDTX+CBDCAを開始。
-[2023-03-03]
-術後化学療法として毎週パクリタキセルを開始。
-[2023-03-13]
-術後化学療法としてweekly PTXを開始。
-[2023-04-05]
-術後化学療法として毎週パクリタキセルを開始。</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>子宮体部癌</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+[2023-03-29]
+術後化学療法としてweekly PTXを開始。 心機能低下（EF 54%）あり
+[2023-04-25]
+術後化学療法としてDC療法を開始。 糖尿病（HbA1c 7.9%）あり</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>子宮頸癌</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>2023-01-01のカルテに記載された最新の診断名</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Stage IC</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Stage IVC</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>2023-01-01の内膜組織診の結果に記載された最新のステージ情報</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>子宮体部癌、Stage IC (内膜組織診)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2023-01-01の記載より、内膜組織診の結果が子宮体部癌、Stage ICと診断されているため。</t>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、子宮頸癌、Stage IVC</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2023-01-01の記載に、内膜組織診の結果として子宮頸癌、Stage IVCと診断されたことが記載されているため。</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、子宮体癌、Stage IIIAと診断。
+[2023-01-14]
+治療方針：開腹子宮摘出術の方針。 心機能低下（EF 33%）あり
+[2023-01-27]
+手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間150分、出血量435ml。
+[2023-02-05]
+術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>子宮体癌</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-01-01の病理組織診断に記載された最新の診断名</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Stage IIIA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2023-01-01の病理組織診断に記載された最新のステージ情報</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、子宮体癌、Stage IIIAと診断</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2023-01-01の記載に、病理組織診断の結果として子宮体癌、Stage IIIAと診断されたことが記載されているため</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、頚部腺癌、Stage IVBと診断。
+[2023-01-17]
+治療方針：腹腔鏡下子宮全摘出術の方針。
+[2023-02-06]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間270分、出血量132ml。
+[2023-02-24]
+術後化学療法としてドセタキセル+カルボプラチンを開始。 糖尿病（HbA1c 7.9%）あり
+[2023-03-17]
+術後化学療法として毎週パクリタキセルを開始。 心機能低下（EF 54%）あり</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>頚部腺癌</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-01-01の内膜組織診の結果に記載された最新の診断名</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Stage IVB</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2023-01-01の内膜組織診に記載された最新のステージ情報</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、頚部腺癌、Stage IVBと診断</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2023-01-01の記載にて、組織診の結果が記載されているため</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、子宮内膜癌、Stage IICと診断。
+[2023-01-16]
+治療方針：開腹全摘術の方針。
+[2023-01-27]
+手術記録：腹腔鏡下子宮全摘施行。手術時間171分、出血量993ml。
+[2023-02-10]
+術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>子宮内膜癌</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-01-01の病理組織診断に記載された最新の診断名</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Stage IIC</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>病理組織診断に記載された確定ステージ</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、子宮内膜癌、Stage IIC</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2023-01-01の記載に、病理組織診断の結果として子宮内膜癌、Stage IICと診断されたことが記載されているため。</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、体部類内膜癌、Stage IVAと診断。
+[2023-01-17]
+治療方針：開腹子宮全摘出術の方針。 糖尿病（HbA1c 9.8%）あり
+[2023-02-11]
+手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間234分、出血量290ml。</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>体部類内膜癌</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-01-01の組織診の結果に記載された最新の診断名</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Stage IVA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2023-01-01の組織診結果に記載された最新のステージ情報</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>組織診の結果、体部類内膜癌、Stage IVAと診断</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2023-01-01の記載に組織診の結果が記載されており、がん診断に関連する検査情報として抽出</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、頚部腺癌、Stage IBと診断。
+[2023-01-21]
+治療方針：開腹子宮全摘+両側付属器切除術の方針。 心機能低下（EF 51%）あり
+[2023-02-02]
+手術記録：腹腔鏡下子宮全摘施行。手術時間319分、出血量224ml。
+[2023-02-20]
+術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>頚部腺癌</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023-01-01の内膜組織診の結果に記載された最新の診断名</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Stage IB</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2023-01-01の内膜組織診に記載された確定ステージ</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、頚部腺癌、Stage IB</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2023-01-01の記載に、内膜組織診の結果として頚部腺癌、Stage IBと診断されたことが記載されているため。</t>
         </is>
       </c>
     </row>

--- a/analyzed_results.xlsx
+++ b/analyzed_results.xlsx
@@ -497,32 +497,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>高異型度漿液性癌</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-01-01の組織診の結果に記載された最新の診断名</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Stage IIC</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-01-01の組織診の結果に記載された最新のステージ情報</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>高異型度漿液性癌、Stage IIC</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-01の記載に組織診の結果として記載されているため</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
     </row>
@@ -546,32 +546,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>子宮体部類内膜癌</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-01-01の組織診の結果に記載された最新の診断名</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Stage IIA</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023-01-01の組織診結果に記載された最新のステージ情報</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>組織診の結果、子宮体部類内膜癌、Stage IIA</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023-01-01の記載に組織診の結果が記載されており、がん診断に関連する検査情報として抽出。</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
     </row>
@@ -595,32 +595,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>子宮頚癌</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-01-01の組織診断に記載された最新の診断名</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Stage IVA</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023-01-01の組織診断に記載された最新のステージ情報</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>組織診断の結果、子宮頚癌、Stage IVAと診断</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023-01-01の記載に組織診断の結果が記載されており、最新の診断検査情報として抽出</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
     </row>
@@ -640,32 +640,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明細胞癌</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-01-01の組織診断に記載された最新の診断名</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Stage IIIC</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023-01-01の組織診断に記載された最新のステージ情報</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>組織診断の結果、明細胞癌、Stage IIIC</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023-01-01の記載に組織診断の結果が記載されており、がん診断に関連する検査情報として抽出</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
     </row>
@@ -691,32 +691,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>子宮頸癌</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-01-01のカルテに記載された最新の診断名</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Stage IVC</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023-01-01の内膜組織診の結果に記載された最新のステージ情報</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>内膜組織診の結果、子宮頸癌、Stage IVC</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2023-01-01の記載に、内膜組織診の結果として子宮頸癌、Stage IVCと診断されたことが記載されているため。</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>子宮体癌</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-01-01の病理組織診断に記載された最新の診断名</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Stage IIIA</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023-01-01の病理組織診断に記載された最新のステージ情報</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>病理組織診断の結果、子宮体癌、Stage IIIAと診断</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2023-01-01の記載に、病理組織診断の結果として子宮体癌、Stage IIIAと診断されたことが記載されているため</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
     </row>
@@ -787,32 +787,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>頚部腺癌</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-01-01の内膜組織診の結果に記載された最新の診断名</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Stage IVB</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023-01-01の内膜組織診に記載された最新のステージ情報</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>内膜組織診の結果、頚部腺癌、Stage IVBと診断</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2023-01-01の記載にて、組織診の結果が記載されているため</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
     </row>
@@ -834,32 +834,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>子宮内膜癌</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-01-01の病理組織診断に記載された最新の診断名</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Stage IIC</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>病理組織診断に記載された確定ステージ</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>病理組織診断の結果、子宮内膜癌、Stage IIC</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2023-01-01の記載に、病理組織診断の結果として子宮内膜癌、Stage IICと診断されたことが記載されているため。</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>体部類内膜癌</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-01-01の組織診の結果に記載された最新の診断名</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Stage IVA</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023-01-01の組織診結果に記載された最新のステージ情報</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>組織診の結果、体部類内膜癌、Stage IVAと診断</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2023-01-01の記載に組織診の結果が記載されており、がん診断に関連する検査情報として抽出</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
     </row>
@@ -926,32 +926,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>頚部腺癌</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-01-01の内膜組織診の結果に記載された最新の診断名</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Stage IB</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023-01-01の内膜組織診に記載された確定ステージ</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>内膜組織診の結果、頚部腺癌、Stage IB</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2023-01-01の記載に、内膜組織診の結果として頚部腺癌、Stage IBと診断されたことが記載されているため。</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
     </row>
